--- a/pred_ohlcv/54_21/2019-10-25 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-542817.4688816327</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-362883.2329816327</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-413133.1003816326</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-413254.1003816326</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1219314.893181633</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1618740.015981633</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1613140.015981633</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1633619.255381632</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1332323.644281632</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1348957.304181632</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-880586.6733816323</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1304046.589281632</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-660711.7971533017</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-25 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-542817.4688816327</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-362883.2329816327</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1219314.893181633</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1613140.015981633</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1633619.255381632</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1472057.097181632</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1348947.304181632</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1349409.851181632</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1349399.851181632</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-880586.6733816323</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1304046.589281632</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-660711.7971533017</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
